--- a/src/test/resources/test_data/ecommerceTestData.xlsx
+++ b/src/test/resources/test_data/ecommerceTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>EMAIL</t>
   </si>
@@ -47,10 +47,7 @@
     <t>admin@126</t>
   </si>
   <si>
-    <t>admin@127</t>
-  </si>
-  <si>
-    <t>admin@128</t>
+    <t>admin@xyz1.com</t>
   </si>
 </sst>
 </file>
@@ -382,16 +379,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,55 +396,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>